--- a/Docs/Project-plan.xlsx
+++ b/Docs/Project-plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruslan.tur\Dropbox\Documents\Blogifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rtur\src\Github\blogifierdotnet\Design\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J11" t="s">
@@ -1051,7 +1051,7 @@
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J12" t="s">
@@ -1059,7 +1059,7 @@
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>71</v>
       </c>
       <c r="K13" t="s">
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
       <c r="K14" t="s">
@@ -1075,7 +1075,7 @@
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
       <c r="K15" t="s">
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Docs/Project-plan.xlsx
+++ b/Docs/Project-plan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rtur\src\Github\blogifierdotnet\Design\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>20-24</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Francis</t>
+  </si>
+  <si>
+    <t>Designing the Layout of the Admin on Photoshop</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -368,6 +371,7 @@
     <xf numFmtId="18" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,15 +686,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG30"/>
+  <dimension ref="B1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
@@ -1186,6 +1190,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Docs/Project-plan.xlsx
+++ b/Docs/Project-plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>20-24</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Francis</t>
+  </si>
+  <si>
+    <t>EF in memory</t>
   </si>
 </sst>
 </file>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG30"/>
+  <dimension ref="B1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,122 +1070,127 @@
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
-        <v>38</v>
+      <c r="C14" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5">
+      <c r="C22" s="8"/>
+      <c r="D22" s="5">
         <v>0.2</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5">
+      <c r="E22" s="8"/>
+      <c r="F22" s="5">
         <v>0.3</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="5">
+      <c r="H22" s="8"/>
+      <c r="I22" s="5">
         <v>0.4</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="5">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="5">
         <v>0.5</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="5">
+      <c r="P22" s="8"/>
+      <c r="Q22" s="5">
         <v>0.6</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="5">
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="5">
         <v>0.7</v>
       </c>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="5">
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="5">
         <v>0.8</v>
       </c>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="4"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Docs/Project-plan.xlsx
+++ b/Docs/Project-plan.xlsx
@@ -688,7 +688,7 @@
   <dimension ref="B1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1070,7 @@
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>76</v>
       </c>
     </row>

--- a/Docs/Project-plan.xlsx
+++ b/Docs/Project-plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>20-24</t>
   </si>
@@ -173,33 +173,12 @@
     <t>July</t>
   </si>
   <si>
-    <t>Styles</t>
-  </si>
-  <si>
-    <t>Fonts</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
-    <t>Layouts</t>
-  </si>
-  <si>
-    <t>Forms</t>
-  </si>
-  <si>
-    <t>Tables</t>
-  </si>
-  <si>
     <t>Fav icon</t>
   </si>
   <si>
-    <t>Responsive</t>
-  </si>
-  <si>
-    <t>Cards</t>
-  </si>
-  <si>
     <t>SQL server</t>
   </si>
   <si>
@@ -255,13 +234,37 @@
   </si>
   <si>
     <t>EF in memory</t>
+  </si>
+  <si>
+    <t>List -&gt; more -&gt; detail</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Setting up HTML framework</t>
+  </si>
+  <si>
+    <t>Working on Photoshop mockups</t>
+  </si>
+  <si>
+    <t>Building layout</t>
+  </si>
+  <si>
+    <t>Adding pages (in process)</t>
+  </si>
+  <si>
+    <t>New layout?</t>
+  </si>
+  <si>
+    <t>Continue work on pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,15 +280,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +353,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -350,10 +371,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -369,10 +392,13 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG31"/>
+  <dimension ref="B1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,9 +724,12 @@
     <col min="4" max="4" width="3.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
     <col min="17" max="17" width="3.85546875" customWidth="1"/>
     <col min="21" max="21" width="3.85546875" customWidth="1"/>
@@ -720,23 +749,23 @@
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10">
         <v>4</v>
       </c>
-      <c r="H1" s="10">
+      <c r="M1" s="10">
         <v>5</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10">
-        <v>6</v>
-      </c>
-      <c r="K1" s="10">
-        <v>7</v>
-      </c>
-      <c r="L1" s="10">
-        <v>8</v>
-      </c>
-      <c r="M1" s="10">
-        <v>9</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="10">
@@ -769,27 +798,27 @@
       <c r="Z1" s="10"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="5">
         <v>0.2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5">
         <v>0.3</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5">
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5">
         <v>0.4</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -819,7 +848,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AB2" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AC2" s="11">
         <v>0.41666666666666669</v>
@@ -855,13 +884,13 @@
       <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
@@ -899,7 +928,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC3" s="12">
         <v>0.77083333333333337</v>
@@ -921,22 +950,22 @@
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="5"/>
       <c r="O5" s="9" t="s">
@@ -961,238 +990,228 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="E6" t="s">
-        <v>27</v>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="E6" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" t="s">
-        <v>30</v>
       </c>
       <c r="O6" t="s">
         <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="V6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="E7" t="s">
-        <v>28</v>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="E7" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
         <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
       </c>
       <c r="O7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="B8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="E8" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
         <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
       </c>
       <c r="O8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="9"/>
+      <c r="B9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
         <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="J10" t="s">
+      <c r="B10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="E10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
         <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="C19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
         <v>72</v>
       </c>
+      <c r="C20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
+      <c r="P22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Project-plan.xlsx
+++ b/Docs/Project-plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>20-24</t>
   </si>
@@ -182,9 +182,6 @@
     <t>SQL server</t>
   </si>
   <si>
-    <t>PostgreSQL</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -254,10 +251,16 @@
     <t>Adding pages (in process)</t>
   </si>
   <si>
-    <t>New layout?</t>
-  </si>
-  <si>
-    <t>Continue work on pages</t>
+    <t>PostgreSQL (separate branch?)</t>
+  </si>
+  <si>
+    <t>New layout</t>
+  </si>
+  <si>
+    <t>Post list</t>
+  </si>
+  <si>
+    <t>About</t>
   </si>
 </sst>
 </file>
@@ -711,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG22"/>
+  <dimension ref="B1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +728,8 @@
     <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="9" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
@@ -848,7 +852,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AB2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="11">
         <v>0.41666666666666669</v>
@@ -928,7 +932,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC3" s="12">
         <v>0.77083333333333337</v>
@@ -991,11 +995,11 @@
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -1008,7 +1012,7 @@
         <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V6" t="s">
         <v>45</v>
@@ -1016,11 +1020,11 @@
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="E7" s="14" t="s">
-        <v>63</v>
+      <c r="E7" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1034,7 +1038,7 @@
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="13"/>
       <c r="E8" s="14" t="s">
@@ -1052,7 +1056,7 @@
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="13"/>
       <c r="E9" s="14" t="s">
@@ -1070,17 +1074,17 @@
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
@@ -1088,15 +1092,15 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1104,7 +1108,7 @@
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
         <v>37</v>
@@ -1125,7 +1129,7 @@
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="5">
@@ -1136,7 +1140,7 @@
         <v>0.3</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1145,7 +1149,7 @@
         <v>0.4</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="5">
@@ -1176,10 +1180,10 @@
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>76</v>
@@ -1190,10 +1194,10 @@
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>77</v>
@@ -1205,13 +1209,24 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="13"/>
+      <c r="E21" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E22" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Project-plan.xlsx
+++ b/Docs/Project-plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>20-24</t>
   </si>
@@ -261,13 +261,16 @@
   </si>
   <si>
     <t>About</t>
+  </si>
+  <si>
+    <t>File upload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +307,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +374,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -374,12 +389,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -398,8 +414,12 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG23"/>
+  <dimension ref="B1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,24 +772,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="10"/>
-      <c r="G1" s="10">
+      <c r="G1" s="16">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10">
         <v>6</v>
       </c>
-      <c r="H1" s="10">
+      <c r="J1" s="10">
         <v>7</v>
-      </c>
-      <c r="I1" s="10">
-        <v>8</v>
-      </c>
-      <c r="J1" s="10">
-        <v>9</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M1" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="10">
@@ -809,18 +829,18 @@
       <c r="D2" s="5">
         <v>0.2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5">
         <v>0.3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
       <c r="K2" s="5">
         <v>0.4</v>
       </c>
@@ -998,11 +1018,20 @@
         <v>56</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
         <v>61</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" t="s">
@@ -1024,10 +1053,16 @@
       </c>
       <c r="C7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
       </c>
       <c r="L7" t="s">
         <v>30</v>
@@ -1041,11 +1076,17 @@
         <v>58</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="E8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
       </c>
       <c r="L8" t="s">
         <v>31</v>
@@ -1059,11 +1100,11 @@
         <v>59</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="E9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
@@ -1077,10 +1118,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>75</v>
       </c>
       <c r="L10" t="s">
@@ -1094,37 +1132,20 @@
       <c r="C11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
@@ -1185,10 +1206,19 @@
       <c r="C19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1199,10 +1229,10 @@
       <c r="C20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s">
         <v>50</v>
       </c>
       <c r="K20" s="4"/>
@@ -1212,21 +1242,10 @@
         <v>72</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="E21" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E22" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E23" s="14" t="s">
-        <v>78</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
